--- a/data/4-21.xlsx
+++ b/data/4-21.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nilsberglund/Desktop/Tracker Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eui1.sharepoint.com/sites/EUIGIFI/Shared Documents/General/Other deliverables/DFI Tracker/Data Sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D193B81-37FD-8D4C-A39A-500E5C0031AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{2D193B81-37FD-8D4C-A39A-500E5C0031AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5367D1F-A1BE-684C-A071-92105432F920}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="18960" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1561,7 +1561,7 @@
   <dimension ref="A1:K750"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1631,10 +1631,10 @@
         <v>402</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J2" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>2024</v>
@@ -1666,10 +1666,10 @@
         <v>402</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J3" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>2024</v>
@@ -1701,10 +1701,10 @@
         <v>402</v>
       </c>
       <c r="I4" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J4" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>2024</v>
@@ -1736,10 +1736,10 @@
         <v>402</v>
       </c>
       <c r="I5" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J5" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>2024</v>
@@ -1771,10 +1771,10 @@
         <v>402</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J6" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>2024</v>
@@ -1806,10 +1806,10 @@
         <v>402</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J7" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>2024</v>
@@ -1841,10 +1841,10 @@
         <v>402</v>
       </c>
       <c r="I8" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J8" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>2024</v>
@@ -1876,10 +1876,10 @@
         <v>402</v>
       </c>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J9" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>2024</v>
@@ -1911,10 +1911,10 @@
         <v>402</v>
       </c>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J10" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>2024</v>
@@ -1946,10 +1946,10 @@
         <v>402</v>
       </c>
       <c r="I11" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J11" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>2024</v>
@@ -1981,10 +1981,10 @@
         <v>402</v>
       </c>
       <c r="I12" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J12" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>2024</v>
@@ -2016,10 +2016,10 @@
         <v>402</v>
       </c>
       <c r="I13" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J13" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>2024</v>
@@ -2051,10 +2051,10 @@
         <v>402</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J14" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>2024</v>
@@ -2086,10 +2086,10 @@
         <v>402</v>
       </c>
       <c r="I15" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J15" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>2024</v>
@@ -2121,10 +2121,10 @@
         <v>402</v>
       </c>
       <c r="I16" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J16" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>2024</v>
@@ -2156,10 +2156,10 @@
         <v>402</v>
       </c>
       <c r="I17" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J17" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>2024</v>
@@ -2191,10 +2191,10 @@
         <v>402</v>
       </c>
       <c r="I18" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J18" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>2024</v>
@@ -2226,10 +2226,10 @@
         <v>402</v>
       </c>
       <c r="I19" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J19" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>2024</v>
@@ -2261,10 +2261,10 @@
         <v>402</v>
       </c>
       <c r="I20" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J20" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>2024</v>
@@ -2296,10 +2296,10 @@
         <v>402</v>
       </c>
       <c r="I21" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J21" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>2024</v>
@@ -2331,10 +2331,10 @@
         <v>402</v>
       </c>
       <c r="I22" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J22" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>2024</v>
@@ -2366,10 +2366,10 @@
         <v>402</v>
       </c>
       <c r="I23" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J23" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>2024</v>
@@ -2401,10 +2401,10 @@
         <v>402</v>
       </c>
       <c r="I24" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J24" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>2024</v>
@@ -2436,10 +2436,10 @@
         <v>402</v>
       </c>
       <c r="I25" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J25" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>2024</v>
@@ -2471,10 +2471,10 @@
         <v>402</v>
       </c>
       <c r="I26" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J26" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>2024</v>
@@ -2506,10 +2506,10 @@
         <v>402</v>
       </c>
       <c r="I27" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J27" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K27" s="1">
         <v>2024</v>
@@ -2541,10 +2541,10 @@
         <v>402</v>
       </c>
       <c r="I28" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J28" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K28" s="1">
         <v>2024</v>
@@ -2576,10 +2576,10 @@
         <v>402</v>
       </c>
       <c r="I29" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J29" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K29" s="1">
         <v>2024</v>
@@ -2611,10 +2611,10 @@
         <v>402</v>
       </c>
       <c r="I30" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J30" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K30" s="1">
         <v>2024</v>
@@ -2646,10 +2646,10 @@
         <v>402</v>
       </c>
       <c r="I31" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J31" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K31" s="1">
         <v>2024</v>
@@ -2681,10 +2681,10 @@
         <v>402</v>
       </c>
       <c r="I32" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J32" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K32" s="1">
         <v>2024</v>
@@ -2716,10 +2716,10 @@
         <v>402</v>
       </c>
       <c r="I33" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J33" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K33" s="1">
         <v>2024</v>
@@ -2751,10 +2751,10 @@
         <v>402</v>
       </c>
       <c r="I34" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J34" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K34" s="1">
         <v>2024</v>
@@ -2786,10 +2786,10 @@
         <v>402</v>
       </c>
       <c r="I35" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J35" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K35" s="1">
         <v>2024</v>
@@ -2821,10 +2821,10 @@
         <v>402</v>
       </c>
       <c r="I36" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J36" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K36" s="1">
         <v>2024</v>
@@ -2856,10 +2856,10 @@
         <v>402</v>
       </c>
       <c r="I37" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J37" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K37" s="1">
         <v>2024</v>
@@ -2891,10 +2891,10 @@
         <v>402</v>
       </c>
       <c r="I38" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J38" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K38" s="1">
         <v>2024</v>
@@ -2926,10 +2926,10 @@
         <v>402</v>
       </c>
       <c r="I39" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J39" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K39" s="1">
         <v>2024</v>
@@ -2961,10 +2961,10 @@
         <v>402</v>
       </c>
       <c r="I40" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J40" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K40" s="1">
         <v>2024</v>
@@ -2996,10 +2996,10 @@
         <v>402</v>
       </c>
       <c r="I41" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J41" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K41" s="1">
         <v>2024</v>
@@ -3031,10 +3031,10 @@
         <v>402</v>
       </c>
       <c r="I42" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J42" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K42" s="1">
         <v>2024</v>
@@ -3066,10 +3066,10 @@
         <v>402</v>
       </c>
       <c r="I43" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J43" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K43" s="1">
         <v>2024</v>
@@ -3101,10 +3101,10 @@
         <v>402</v>
       </c>
       <c r="I44" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J44" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K44" s="1">
         <v>2024</v>
@@ -3136,10 +3136,10 @@
         <v>402</v>
       </c>
       <c r="I45" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J45" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K45" s="1">
         <v>2024</v>
@@ -3171,10 +3171,10 @@
         <v>402</v>
       </c>
       <c r="I46" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J46" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K46" s="1">
         <v>2024</v>
@@ -3206,10 +3206,10 @@
         <v>402</v>
       </c>
       <c r="I47" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J47" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K47" s="1">
         <v>2024</v>
@@ -3241,10 +3241,10 @@
         <v>402</v>
       </c>
       <c r="I48" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J48" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K48" s="1">
         <v>2024</v>
@@ -3276,10 +3276,10 @@
         <v>402</v>
       </c>
       <c r="I49" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J49" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K49" s="1">
         <v>2024</v>
@@ -3311,10 +3311,10 @@
         <v>402</v>
       </c>
       <c r="I50" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J50" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K50" s="1">
         <v>2024</v>
@@ -3346,10 +3346,10 @@
         <v>402</v>
       </c>
       <c r="I51" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J51" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K51" s="1">
         <v>2024</v>
@@ -3381,10 +3381,10 @@
         <v>402</v>
       </c>
       <c r="I52" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J52" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K52" s="1">
         <v>2024</v>
@@ -3416,10 +3416,10 @@
         <v>402</v>
       </c>
       <c r="I53" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J53" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K53" s="1">
         <v>2024</v>
@@ -3451,10 +3451,10 @@
         <v>402</v>
       </c>
       <c r="I54" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J54" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K54" s="1">
         <v>2024</v>
@@ -3486,10 +3486,10 @@
         <v>402</v>
       </c>
       <c r="I55" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J55" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K55" s="1">
         <v>2024</v>
@@ -3521,10 +3521,10 @@
         <v>402</v>
       </c>
       <c r="I56" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J56" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K56" s="1">
         <v>2024</v>
@@ -3556,10 +3556,10 @@
         <v>402</v>
       </c>
       <c r="I57" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J57" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K57" s="1">
         <v>2024</v>
@@ -3591,10 +3591,10 @@
         <v>402</v>
       </c>
       <c r="I58" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J58" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K58" s="1">
         <v>2024</v>
@@ -3626,10 +3626,10 @@
         <v>402</v>
       </c>
       <c r="I59" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J59" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K59" s="1">
         <v>2024</v>
@@ -3661,10 +3661,10 @@
         <v>402</v>
       </c>
       <c r="I60" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J60" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K60" s="1">
         <v>2024</v>
@@ -3696,10 +3696,10 @@
         <v>402</v>
       </c>
       <c r="I61" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J61" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K61" s="1">
         <v>2024</v>
@@ -3731,10 +3731,10 @@
         <v>402</v>
       </c>
       <c r="I62" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J62" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K62" s="1">
         <v>2024</v>
@@ -3766,10 +3766,10 @@
         <v>402</v>
       </c>
       <c r="I63" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J63" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K63" s="1">
         <v>2024</v>
@@ -3801,10 +3801,10 @@
         <v>402</v>
       </c>
       <c r="I64" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J64" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K64" s="1">
         <v>2024</v>
@@ -3836,10 +3836,10 @@
         <v>402</v>
       </c>
       <c r="I65" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J65" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K65" s="1">
         <v>2024</v>
@@ -3871,10 +3871,10 @@
         <v>402</v>
       </c>
       <c r="I66" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J66" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K66" s="1">
         <v>2024</v>
@@ -3906,10 +3906,10 @@
         <v>402</v>
       </c>
       <c r="I67" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J67" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K67" s="1">
         <v>2024</v>
@@ -3941,10 +3941,10 @@
         <v>402</v>
       </c>
       <c r="I68" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J68" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K68" s="1">
         <v>2024</v>
@@ -3976,10 +3976,10 @@
         <v>402</v>
       </c>
       <c r="I69" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J69" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K69" s="1">
         <v>2024</v>
@@ -4011,10 +4011,10 @@
         <v>402</v>
       </c>
       <c r="I70" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J70" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K70" s="1">
         <v>2024</v>
@@ -4046,10 +4046,10 @@
         <v>402</v>
       </c>
       <c r="I71" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J71" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K71" s="1">
         <v>2024</v>
@@ -4081,10 +4081,10 @@
         <v>402</v>
       </c>
       <c r="I72" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J72" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K72" s="1">
         <v>2024</v>
@@ -4116,10 +4116,10 @@
         <v>402</v>
       </c>
       <c r="I73" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J73" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K73" s="1">
         <v>2024</v>
@@ -4151,10 +4151,10 @@
         <v>402</v>
       </c>
       <c r="I74" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J74" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K74" s="1">
         <v>2024</v>
@@ -4186,10 +4186,10 @@
         <v>402</v>
       </c>
       <c r="I75" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J75" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K75" s="1">
         <v>2024</v>
@@ -4221,10 +4221,10 @@
         <v>402</v>
       </c>
       <c r="I76" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J76" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K76" s="1">
         <v>2024</v>
@@ -4256,10 +4256,10 @@
         <v>402</v>
       </c>
       <c r="I77" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J77" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K77" s="1">
         <v>2024</v>
@@ -4291,10 +4291,10 @@
         <v>402</v>
       </c>
       <c r="I78" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J78" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K78" s="1">
         <v>2024</v>
@@ -4326,10 +4326,10 @@
         <v>402</v>
       </c>
       <c r="I79" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J79" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K79" s="1">
         <v>2024</v>
@@ -4361,10 +4361,10 @@
         <v>402</v>
       </c>
       <c r="I80" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J80" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K80" s="1">
         <v>2024</v>
@@ -4396,10 +4396,10 @@
         <v>402</v>
       </c>
       <c r="I81" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J81" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K81" s="1">
         <v>2024</v>
@@ -4431,10 +4431,10 @@
         <v>402</v>
       </c>
       <c r="I82" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J82" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K82" s="1">
         <v>2024</v>
@@ -4466,10 +4466,10 @@
         <v>402</v>
       </c>
       <c r="I83" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J83" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K83" s="1">
         <v>2024</v>
@@ -4501,10 +4501,10 @@
         <v>402</v>
       </c>
       <c r="I84" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J84" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K84" s="1">
         <v>2024</v>
@@ -4536,10 +4536,10 @@
         <v>402</v>
       </c>
       <c r="I85" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J85" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K85" s="1">
         <v>2024</v>
@@ -4571,10 +4571,10 @@
         <v>402</v>
       </c>
       <c r="I86" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J86" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K86" s="1">
         <v>2024</v>
@@ -4606,10 +4606,10 @@
         <v>402</v>
       </c>
       <c r="I87" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J87" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K87" s="1">
         <v>2024</v>
@@ -4641,10 +4641,10 @@
         <v>402</v>
       </c>
       <c r="I88" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J88" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K88" s="1">
         <v>2024</v>
@@ -4676,10 +4676,10 @@
         <v>402</v>
       </c>
       <c r="I89" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J89" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K89" s="1">
         <v>2024</v>
@@ -4711,10 +4711,10 @@
         <v>402</v>
       </c>
       <c r="I90" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J90" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K90" s="1">
         <v>2024</v>
@@ -4746,10 +4746,10 @@
         <v>402</v>
       </c>
       <c r="I91" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J91" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K91" s="1">
         <v>2024</v>
@@ -4781,10 +4781,10 @@
         <v>402</v>
       </c>
       <c r="I92" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J92" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K92" s="1">
         <v>2024</v>
@@ -4816,10 +4816,10 @@
         <v>402</v>
       </c>
       <c r="I93" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J93" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K93" s="1">
         <v>2024</v>
@@ -4851,10 +4851,10 @@
         <v>402</v>
       </c>
       <c r="I94" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J94" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K94" s="1">
         <v>2024</v>
@@ -4886,10 +4886,10 @@
         <v>402</v>
       </c>
       <c r="I95" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J95" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K95" s="1">
         <v>2024</v>
@@ -4921,10 +4921,10 @@
         <v>402</v>
       </c>
       <c r="I96" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J96" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K96" s="1">
         <v>2024</v>
@@ -4956,10 +4956,10 @@
         <v>402</v>
       </c>
       <c r="I97" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J97" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K97" s="1">
         <v>2024</v>
@@ -4991,10 +4991,10 @@
         <v>402</v>
       </c>
       <c r="I98" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J98" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K98" s="1">
         <v>2024</v>
@@ -5026,10 +5026,10 @@
         <v>402</v>
       </c>
       <c r="I99" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J99" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K99" s="1">
         <v>2024</v>
@@ -5061,10 +5061,10 @@
         <v>402</v>
       </c>
       <c r="I100" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J100" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K100" s="1">
         <v>2024</v>
@@ -5096,10 +5096,10 @@
         <v>402</v>
       </c>
       <c r="I101" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J101" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K101" s="1">
         <v>2024</v>
@@ -5131,10 +5131,10 @@
         <v>402</v>
       </c>
       <c r="I102" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J102" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K102" s="1">
         <v>2024</v>
@@ -5166,10 +5166,10 @@
         <v>402</v>
       </c>
       <c r="I103" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J103" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K103" s="1">
         <v>2024</v>
@@ -5201,10 +5201,10 @@
         <v>402</v>
       </c>
       <c r="I104" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J104" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K104" s="1">
         <v>2024</v>
@@ -5236,10 +5236,10 @@
         <v>402</v>
       </c>
       <c r="I105" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J105" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K105" s="1">
         <v>2024</v>
@@ -5271,10 +5271,10 @@
         <v>402</v>
       </c>
       <c r="I106" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J106" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K106" s="1">
         <v>2024</v>
@@ -5306,10 +5306,10 @@
         <v>402</v>
       </c>
       <c r="I107" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J107" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K107" s="1">
         <v>2024</v>
@@ -5341,10 +5341,10 @@
         <v>402</v>
       </c>
       <c r="I108" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J108" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K108" s="1">
         <v>2024</v>
@@ -5376,10 +5376,10 @@
         <v>402</v>
       </c>
       <c r="I109" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J109" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K109" s="1">
         <v>2024</v>
@@ -5411,10 +5411,10 @@
         <v>402</v>
       </c>
       <c r="I110" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J110" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K110" s="1">
         <v>2024</v>
@@ -5446,10 +5446,10 @@
         <v>402</v>
       </c>
       <c r="I111" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J111" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K111" s="1">
         <v>2024</v>
@@ -5481,10 +5481,10 @@
         <v>402</v>
       </c>
       <c r="I112" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J112" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K112" s="1">
         <v>2024</v>
@@ -5516,10 +5516,10 @@
         <v>402</v>
       </c>
       <c r="I113" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J113" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K113" s="1">
         <v>2024</v>
@@ -5551,10 +5551,10 @@
         <v>402</v>
       </c>
       <c r="I114" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J114" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K114" s="1">
         <v>2024</v>
@@ -5586,10 +5586,10 @@
         <v>402</v>
       </c>
       <c r="I115" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J115" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K115" s="1">
         <v>2024</v>
@@ -5621,10 +5621,10 @@
         <v>402</v>
       </c>
       <c r="I116" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J116" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K116" s="1">
         <v>2024</v>
@@ -5656,10 +5656,10 @@
         <v>402</v>
       </c>
       <c r="I117" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J117" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K117" s="1">
         <v>2024</v>
@@ -5691,10 +5691,10 @@
         <v>402</v>
       </c>
       <c r="I118" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J118" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K118" s="1">
         <v>2024</v>
@@ -5726,10 +5726,10 @@
         <v>402</v>
       </c>
       <c r="I119" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J119" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K119" s="1">
         <v>2024</v>
@@ -5761,10 +5761,10 @@
         <v>402</v>
       </c>
       <c r="I120" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J120" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K120" s="1">
         <v>2024</v>
@@ -5796,10 +5796,10 @@
         <v>402</v>
       </c>
       <c r="I121" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J121" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K121" s="1">
         <v>2024</v>
@@ -5831,10 +5831,10 @@
         <v>402</v>
       </c>
       <c r="I122" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J122" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K122" s="1">
         <v>2024</v>
@@ -5866,10 +5866,10 @@
         <v>402</v>
       </c>
       <c r="I123" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J123" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K123" s="1">
         <v>2024</v>
@@ -5901,10 +5901,10 @@
         <v>402</v>
       </c>
       <c r="I124" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J124" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K124" s="1">
         <v>2024</v>
@@ -5936,10 +5936,10 @@
         <v>402</v>
       </c>
       <c r="I125" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J125" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K125" s="1">
         <v>2024</v>
@@ -5971,10 +5971,10 @@
         <v>402</v>
       </c>
       <c r="I126" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J126" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K126" s="1">
         <v>2024</v>
@@ -6006,10 +6006,10 @@
         <v>402</v>
       </c>
       <c r="I127" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J127" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K127" s="1">
         <v>2024</v>
@@ -6041,10 +6041,10 @@
         <v>402</v>
       </c>
       <c r="I128" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J128" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K128" s="1">
         <v>2024</v>
@@ -6076,10 +6076,10 @@
         <v>402</v>
       </c>
       <c r="I129" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J129" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K129" s="1">
         <v>2024</v>
@@ -6111,10 +6111,10 @@
         <v>402</v>
       </c>
       <c r="I130" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J130" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K130" s="1">
         <v>2024</v>
@@ -6146,10 +6146,10 @@
         <v>402</v>
       </c>
       <c r="I131" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J131" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K131" s="1">
         <v>2024</v>
@@ -6181,10 +6181,10 @@
         <v>402</v>
       </c>
       <c r="I132" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J132" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K132" s="1">
         <v>2024</v>
@@ -6216,10 +6216,10 @@
         <v>402</v>
       </c>
       <c r="I133" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J133" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K133" s="1">
         <v>2024</v>
@@ -6251,10 +6251,10 @@
         <v>402</v>
       </c>
       <c r="I134" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J134" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K134" s="1">
         <v>2024</v>
@@ -6286,10 +6286,10 @@
         <v>402</v>
       </c>
       <c r="I135" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J135" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K135" s="1">
         <v>2024</v>
@@ -6321,10 +6321,10 @@
         <v>402</v>
       </c>
       <c r="I136" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J136" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K136" s="1">
         <v>2024</v>
@@ -6356,10 +6356,10 @@
         <v>402</v>
       </c>
       <c r="I137" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J137" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K137" s="1">
         <v>2024</v>
@@ -6391,10 +6391,10 @@
         <v>402</v>
       </c>
       <c r="I138" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J138" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K138" s="1">
         <v>2024</v>
@@ -6426,10 +6426,10 @@
         <v>402</v>
       </c>
       <c r="I139" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J139" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K139" s="1">
         <v>2024</v>
@@ -6461,10 +6461,10 @@
         <v>402</v>
       </c>
       <c r="I140" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J140" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K140" s="1">
         <v>2024</v>
@@ -6496,10 +6496,10 @@
         <v>402</v>
       </c>
       <c r="I141" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J141" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K141" s="1">
         <v>2024</v>
@@ -6531,10 +6531,10 @@
         <v>402</v>
       </c>
       <c r="I142" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J142" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K142" s="1">
         <v>2024</v>
@@ -6566,10 +6566,10 @@
         <v>402</v>
       </c>
       <c r="I143" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J143" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K143" s="1">
         <v>2024</v>
@@ -6601,10 +6601,10 @@
         <v>402</v>
       </c>
       <c r="I144" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J144" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K144" s="1">
         <v>2024</v>
@@ -6636,10 +6636,10 @@
         <v>402</v>
       </c>
       <c r="I145" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J145" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K145" s="1">
         <v>2024</v>
@@ -6671,10 +6671,10 @@
         <v>402</v>
       </c>
       <c r="I146" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J146" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K146" s="1">
         <v>2024</v>
@@ -6706,10 +6706,10 @@
         <v>402</v>
       </c>
       <c r="I147" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J147" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K147" s="1">
         <v>2024</v>
@@ -6741,10 +6741,10 @@
         <v>402</v>
       </c>
       <c r="I148" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J148" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K148" s="1">
         <v>2024</v>
@@ -6776,10 +6776,10 @@
         <v>402</v>
       </c>
       <c r="I149" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J149" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K149" s="1">
         <v>2024</v>
@@ -6811,10 +6811,10 @@
         <v>402</v>
       </c>
       <c r="I150" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J150" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K150" s="1">
         <v>2024</v>
@@ -6846,10 +6846,10 @@
         <v>402</v>
       </c>
       <c r="I151" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J151" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K151" s="1">
         <v>2024</v>
@@ -6881,10 +6881,10 @@
         <v>402</v>
       </c>
       <c r="I152" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J152" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K152" s="1">
         <v>2024</v>
@@ -6916,10 +6916,10 @@
         <v>402</v>
       </c>
       <c r="I153" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J153" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K153" s="1">
         <v>2024</v>
@@ -6951,10 +6951,10 @@
         <v>402</v>
       </c>
       <c r="I154" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J154" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K154" s="1">
         <v>2024</v>
@@ -6986,10 +6986,10 @@
         <v>402</v>
       </c>
       <c r="I155" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J155" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K155" s="1">
         <v>2024</v>
@@ -7021,10 +7021,10 @@
         <v>402</v>
       </c>
       <c r="I156" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J156" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K156" s="1">
         <v>2024</v>
@@ -7056,10 +7056,10 @@
         <v>402</v>
       </c>
       <c r="I157" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J157" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K157" s="1">
         <v>2024</v>
@@ -7091,10 +7091,10 @@
         <v>402</v>
       </c>
       <c r="I158" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J158" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K158" s="1">
         <v>2024</v>
@@ -7126,10 +7126,10 @@
         <v>402</v>
       </c>
       <c r="I159" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J159" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K159" s="1">
         <v>2024</v>
@@ -7161,10 +7161,10 @@
         <v>402</v>
       </c>
       <c r="I160" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J160" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K160" s="1">
         <v>2024</v>
@@ -7196,10 +7196,10 @@
         <v>402</v>
       </c>
       <c r="I161" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J161" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K161" s="1">
         <v>2024</v>
@@ -7231,10 +7231,10 @@
         <v>402</v>
       </c>
       <c r="I162" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J162" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K162" s="1">
         <v>2024</v>
@@ -7266,10 +7266,10 @@
         <v>402</v>
       </c>
       <c r="I163" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J163" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K163" s="1">
         <v>2024</v>
@@ -7301,10 +7301,10 @@
         <v>402</v>
       </c>
       <c r="I164" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J164" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K164" s="1">
         <v>2024</v>
@@ -7336,10 +7336,10 @@
         <v>402</v>
       </c>
       <c r="I165" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J165" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K165" s="1">
         <v>2024</v>
@@ -7371,10 +7371,10 @@
         <v>402</v>
       </c>
       <c r="I166" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J166" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K166" s="1">
         <v>2024</v>
@@ -7406,10 +7406,10 @@
         <v>402</v>
       </c>
       <c r="I167" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J167" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K167" s="1">
         <v>2024</v>
@@ -7441,10 +7441,10 @@
         <v>402</v>
       </c>
       <c r="I168" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J168" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K168" s="1">
         <v>2024</v>
@@ -7476,10 +7476,10 @@
         <v>402</v>
       </c>
       <c r="I169" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J169" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K169" s="1">
         <v>2024</v>
@@ -7511,10 +7511,10 @@
         <v>402</v>
       </c>
       <c r="I170" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J170" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K170" s="1">
         <v>2024</v>
@@ -7546,10 +7546,10 @@
         <v>402</v>
       </c>
       <c r="I171" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J171" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K171" s="1">
         <v>2024</v>
@@ -7581,10 +7581,10 @@
         <v>402</v>
       </c>
       <c r="I172" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J172" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K172" s="1">
         <v>2024</v>
@@ -7616,10 +7616,10 @@
         <v>402</v>
       </c>
       <c r="I173" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J173" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K173" s="1">
         <v>2024</v>
@@ -7651,10 +7651,10 @@
         <v>402</v>
       </c>
       <c r="I174" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J174" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K174" s="1">
         <v>2024</v>
@@ -7686,10 +7686,10 @@
         <v>402</v>
       </c>
       <c r="I175" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J175" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K175" s="1">
         <v>2024</v>
@@ -7721,10 +7721,10 @@
         <v>402</v>
       </c>
       <c r="I176" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J176" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K176" s="1">
         <v>2024</v>
@@ -7756,10 +7756,10 @@
         <v>402</v>
       </c>
       <c r="I177" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J177" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K177" s="1">
         <v>2024</v>
@@ -7791,10 +7791,10 @@
         <v>402</v>
       </c>
       <c r="I178" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J178" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K178" s="1">
         <v>2024</v>
@@ -7826,10 +7826,10 @@
         <v>402</v>
       </c>
       <c r="I179" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J179" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K179" s="1">
         <v>2024</v>
@@ -7861,10 +7861,10 @@
         <v>402</v>
       </c>
       <c r="I180" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J180" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K180" s="1">
         <v>2024</v>
@@ -7896,10 +7896,10 @@
         <v>402</v>
       </c>
       <c r="I181" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J181" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K181" s="1">
         <v>2024</v>
@@ -7931,10 +7931,10 @@
         <v>402</v>
       </c>
       <c r="I182" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J182" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K182" s="1">
         <v>2024</v>
@@ -7966,10 +7966,10 @@
         <v>402</v>
       </c>
       <c r="I183" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J183" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K183" s="1">
         <v>2024</v>
@@ -8001,10 +8001,10 @@
         <v>402</v>
       </c>
       <c r="I184" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J184" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K184" s="1">
         <v>2024</v>
@@ -8036,10 +8036,10 @@
         <v>402</v>
       </c>
       <c r="I185" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J185" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K185" s="1">
         <v>2024</v>
@@ -8071,10 +8071,10 @@
         <v>402</v>
       </c>
       <c r="I186" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J186" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K186" s="1">
         <v>2024</v>
@@ -8106,10 +8106,10 @@
         <v>402</v>
       </c>
       <c r="I187" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J187" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K187" s="1">
         <v>2024</v>
@@ -8141,10 +8141,10 @@
         <v>402</v>
       </c>
       <c r="I188" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J188" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K188" s="1">
         <v>2024</v>
@@ -8176,10 +8176,10 @@
         <v>402</v>
       </c>
       <c r="I189" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J189" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K189" s="1">
         <v>2024</v>
@@ -8211,10 +8211,10 @@
         <v>402</v>
       </c>
       <c r="I190" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J190" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K190" s="1">
         <v>2024</v>
@@ -8246,10 +8246,10 @@
         <v>402</v>
       </c>
       <c r="I191" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J191" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K191" s="1">
         <v>2024</v>
@@ -8281,10 +8281,10 @@
         <v>402</v>
       </c>
       <c r="I192" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J192" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K192" s="1">
         <v>2024</v>
@@ -8316,10 +8316,10 @@
         <v>402</v>
       </c>
       <c r="I193" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J193" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K193" s="1">
         <v>2024</v>
@@ -8351,10 +8351,10 @@
         <v>402</v>
       </c>
       <c r="I194" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J194" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K194" s="1">
         <v>2024</v>
@@ -8386,10 +8386,10 @@
         <v>402</v>
       </c>
       <c r="I195" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J195" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K195" s="1">
         <v>2024</v>
@@ -14506,6 +14506,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="0b45af84-26f8-4e58-b6b2-ac91f42d435d" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1d2a751e-c940-49fb-b129-5edb270068eb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006E3DD8F6A53105498A3DA392E71453A7" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d601f522e3e51b19c3f9226f134eddba">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1d2a751e-c940-49fb-b129-5edb270068eb" xmlns:ns3="0b45af84-26f8-4e58-b6b2-ac91f42d435d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b945da9333134c263560e394374875cf" ns2:_="" ns3:_="">
     <xsd:import namespace="1d2a751e-c940-49fb-b129-5edb270068eb"/>
@@ -14740,27 +14760,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD8D6A0F-1E10-4DA2-BF80-E3FB7A04BD94}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="0b45af84-26f8-4e58-b6b2-ac91f42d435d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="1d2a751e-c940-49fb-b129-5edb270068eb"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="0b45af84-26f8-4e58-b6b2-ac91f42d435d" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1d2a751e-c940-49fb-b129-5edb270068eb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C503EEC6-05D0-4EEA-AAA4-AECCDB634306}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66DD72AA-EF3B-4CEC-9273-C3CC21E58385}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14777,29 +14802,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C503EEC6-05D0-4EEA-AAA4-AECCDB634306}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD8D6A0F-1E10-4DA2-BF80-E3FB7A04BD94}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="0b45af84-26f8-4e58-b6b2-ac91f42d435d"/>
-    <ds:schemaRef ds:uri="1d2a751e-c940-49fb-b129-5edb270068eb"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>